--- a/biology/Botanique/Herbe_de_la_pampa/Herbe_de_la_pampa.xlsx
+++ b/biology/Botanique/Herbe_de_la_pampa/Herbe_de_la_pampa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortaderia selloana
-L'herbe de la pampa, herbe des pampas ou roseau à plumes (Cortaderia selloana) est une espèce de plantes à fleurs de la famille des Poacée et de la sous-famille des Danthonioideae. C'est une grande plante herbacée vivace originaire d'Amérique du Sud. Elle est souvent cultivée comme plante ornementale. C'est une espèce invasive[1].
+L'herbe de la pampa, herbe des pampas ou roseau à plumes (Cortaderia selloana) est une espèce de plantes à fleurs de la famille des Poacée et de la sous-famille des Danthonioideae. C'est une grande plante herbacée vivace originaire d'Amérique du Sud. Elle est souvent cultivée comme plante ornementale. C'est une espèce invasive.
 Le nom Cortaderia provient de l'espagnol (castillan) et signifie « coupeuse », en référence à ses feuilles longues, fines et coupantes. L'adjectif spécifique selloana lui a été donné en 1818 par le naturaliste Alexander von Humboldt (1769-1859), en hommage au botaniste et naturaliste allemand Friedrich Sellow qui étudia la flore d'Amérique du Sud, en particulier celle du Brésil.
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herbe de la pampa est une grande graminée pouvant atteindre trois mètres de haut, poussant en bouquets denses. L'espèce est dioïque, c'est-à-dire que les fleurs mâles et femelles sont portées par des individus distincts.
-Les feuilles sont persistantes, élancées et longues de 1 à 2 m de long pour 1 cm de large. Elles contiennent une quantité de phytolithes siliceux représentant jusqu'à plus de 5% du poids sec [2], qui, sur les bords de la feuille, agissent comme des dents de scie et lui donne son caractère très coupant. Elles doivent être manipulées avec précaution. Leur couleur va du vert-bleuâtre au gris argent.
+Les feuilles sont persistantes, élancées et longues de 1 à 2 m de long pour 1 cm de large. Elles contiennent une quantité de phytolithes siliceux représentant jusqu'à plus de 5% du poids sec , qui, sur les bords de la feuille, agissent comme des dents de scie et lui donne son caractère très coupant. Elles doivent être manipulées avec précaution. Leur couleur va du vert-bleuâtre au gris argent.
 Les fleurs sont groupées dans des panicules blancs très denses, de 20 à 40 cm de long, portés par des tiges hautes de 2 à 3 mètres.
-La floraison a lieu de juillet à octobre sur le littoral méditerranéen[3].
+La floraison a lieu de juillet à octobre sur le littoral méditerranéen.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Amérique du Sud (Brésil, Paraguay, Uruguay, Argentine, Chili...)
 Elle s'est naturalisée dans de nombreuses régions du monde, notamment en Australie et Nouvelle-Zélande, à Hawaii et dans l'ouest des États-Unis, en Afrique australe, dans l'Europe méridionale et les Îles Canaries. On en trouve également en France, le long des côtes atlantiques, notamment en Aquitaine. 
-L'herbe de la pampa est hautement adaptable et peut croître dans une large gamme de milieux et de climats. Elle est aussi très prolifique, chaque pied pouvant produire plus d'un million de graines - situées dans les inflorescences de la plante - au cours de sa vie. Aussi dans certaines régions, par exemple la Californie et Hawaii, est-elle considérée comme une plante envahissante, tandis qu'en Nouvelle-Zélande il est formellement interdit de la vendre et de la propager. En France l'interdiction pure et simple de produire et de vendre cette plante est prévue sur tout le territoire au motif qu'elle s'est échappée des jardins et s'est implantée sur certaines côtes bretonnes et zones incultes de l'île de La Réunion (à la suite du Grenelle de l'Environnement, le ministère de l'Écologie, du Développement durable, des Transports et du Logement a lancé la définition de sa stratégie de lutte contre les espèces exotiques envahissantes (EEE) ayant « un impact négatif sur la biodiversité ».)[4],[5]. À La Réunion, elle figure sur la liste des plantes interdites par l'arrêté ministériel du 1er avril 2019[6].
+L'herbe de la pampa est hautement adaptable et peut croître dans une large gamme de milieux et de climats. Elle est aussi très prolifique, chaque pied pouvant produire plus d'un million de graines - situées dans les inflorescences de la plante - au cours de sa vie. Aussi dans certaines régions, par exemple la Californie et Hawaii, est-elle considérée comme une plante envahissante, tandis qu'en Nouvelle-Zélande il est formellement interdit de la vendre et de la propager. En France l'interdiction pure et simple de produire et de vendre cette plante est prévue sur tout le territoire au motif qu'elle s'est échappée des jardins et s'est implantée sur certaines côtes bretonnes et zones incultes de l'île de La Réunion (à la suite du Grenelle de l'Environnement, le ministère de l'Écologie, du Développement durable, des Transports et du Logement a lancé la définition de sa stratégie de lutte contre les espèces exotiques envahissantes (EEE) ayant « un impact négatif sur la biodiversité ».),. À La Réunion, elle figure sur la liste des plantes interdites par l'arrêté ministériel du 1er avril 2019.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'herbe de la pampa fut originellement introduite en Europe et en Amérique du Nord comme graminée ornementale, et dans une moindre mesure comme plante de pâturage. Ses inflorescences en plumets sont largement utilisées, une fois séchées, pour la confection de bouquets secs.
 De nombreuses variétés horticoles sont proposées, dont :
